--- a/sputnik/personal/ee/31ee.xlsx
+++ b/sputnik/personal/ee/31ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,7 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>к доплате</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>долг</t>
   </si>
 </sst>
 </file>
@@ -53,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,21 +97,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,11 +129,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -155,21 +159,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -179,9 +174,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -503,79 +502,96 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43246</v>
+        <v>43351</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>3200</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>3480</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>980</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3">
+        <v>1050</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43281</v>
+      <c r="A4" s="8">
+        <v>43543</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>3300</v>
+        <v>3650</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>429</v>
+        <f>C4-C2</f>
+        <v>170</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <v>776.90000000000009</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(F4,F5)</f>
+        <v>848.60000000000014</v>
+      </c>
+      <c r="H4" s="13">
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -584,40 +600,51 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1030</v>
+        <v>1080</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
+        <f>C5-C3</f>
+        <v>30</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>108.5</v>
+        <v>71.7</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="13">
+        <v>70.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43351</v>
+        <v>43635</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>3480</v>
+        <v>3650</v>
       </c>
       <c r="D6" s="3">
         <f>C6-C4</f>
-        <v>180</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>810</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:F11" si="1">D6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(F6,F7)</f>
+        <v>71.7</v>
+      </c>
+      <c r="H6" s="13">
+        <v>71.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -626,40 +653,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1050</v>
+        <v>1110</v>
       </c>
       <c r="D7" s="3">
         <f>C7-C5</f>
-        <v>20</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>71.7</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>43543</v>
+      <c r="A8" s="4">
+        <v>43635</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>3650</v>
+        <v>3750</v>
       </c>
       <c r="D8" s="3">
         <f>C8-C6</f>
-        <v>170</v>
-      </c>
-      <c r="E8" s="12">
+        <v>100</v>
+      </c>
+      <c r="E8" s="9">
         <v>4.57</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>776.90000000000009</v>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>457</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(F8,F9)</f>
+        <v>457</v>
+      </c>
+      <c r="H8" s="13">
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,270 +704,150 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1080</v>
+        <v>1110</v>
       </c>
       <c r="D9" s="3">
         <f>C9-C7</f>
-        <v>30</v>
-      </c>
-      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
         <v>2.39</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>71.7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10">
-        <v>13.1</v>
+      <c r="A10" s="4">
+        <v>43734</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C8</f>
+        <v>150</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>673.5</v>
+      </c>
+      <c r="G10" s="13">
+        <f>SUM(F10,F11)</f>
+        <v>795</v>
+      </c>
+      <c r="H10" s="13">
+        <v>673.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43635</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>3650</v>
+        <v>1160</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C8</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" ref="F11:F16" si="1">D11*E11</f>
-        <v>0</v>
+        <f>C11-C9</f>
+        <v>50</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="13">
+        <v>21.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4">
+        <v>43775</v>
+      </c>
       <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4050</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C10</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="12">
+        <f>D12*E12</f>
+        <v>673.5</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(F12,F13)</f>
+        <v>795</v>
+      </c>
+      <c r="H12" s="13">
+        <v>673.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
-        <v>1110</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C9</f>
-        <v>30</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2.39</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>71.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43635</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="C13" s="3">
-        <v>3750</v>
+        <v>1210</v>
       </c>
       <c r="D13" s="3">
         <f>C13-C11</f>
-        <v>100</v>
-      </c>
-      <c r="E13" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1110</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C12</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>2.39</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43734</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3900</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C13</f>
-        <v>150</v>
-      </c>
-      <c r="E15" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="1"/>
-        <v>673.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1160</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C16-C14</f>
         <v>50</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E13" s="10">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="1"/>
+      <c r="F13" s="12">
+        <f>D13*E13</f>
         <v>121.50000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43775</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4050</v>
-      </c>
-      <c r="D18" s="3">
-        <f>C18-C15</f>
-        <v>150</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>673.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1210</v>
-      </c>
-      <c r="D19" s="3">
-        <f>C19-C16</f>
-        <v>50</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="6">
-        <f>D19*E19</f>
-        <v>121.50000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="13">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(G4:G13)</f>
+        <v>2967.3</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(H4:H13)</f>
+        <v>2854.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="13">
+        <f>SUM(H14,-G14)</f>
+        <v>-113.10000000000036</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/31ee.xlsx
+++ b/sputnik/personal/ee/31ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -488,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -576,14 +576,14 @@
         <v>3650</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C2</f>
+        <f t="shared" ref="D4:D15" si="0">C4-C2</f>
         <v>170</v>
       </c>
       <c r="E4" s="9">
         <v>4.57</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>776.90000000000009</v>
       </c>
       <c r="G4" s="13">
@@ -603,14 +603,14 @@
         <v>1080</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C3</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E5" s="10">
         <v>2.39</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.7</v>
       </c>
       <c r="G5" s="2"/>
@@ -629,14 +629,14 @@
         <v>3650</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="9">
         <v>4.57</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" ref="F6:F11" si="1">D6*E6</f>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
         <v>0</v>
       </c>
       <c r="G6" s="13">
@@ -656,14 +656,14 @@
         <v>1110</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C5</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E7" s="10">
         <v>2.39</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.7</v>
       </c>
       <c r="G7" s="2"/>
@@ -680,14 +680,14 @@
         <v>3750</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C6</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E8" s="9">
         <v>4.57</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>457</v>
       </c>
       <c r="G8" s="13">
@@ -707,14 +707,14 @@
         <v>1110</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="10">
         <v>2.39</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="2"/>
@@ -731,14 +731,14 @@
         <v>3900</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C8</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="E10" s="9">
         <v>4.49</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>673.5</v>
       </c>
       <c r="G10" s="13">
@@ -758,14 +758,14 @@
         <v>1160</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C9</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E11" s="10">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G11" s="2"/>
@@ -784,7 +784,7 @@
         <v>4050</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-C10</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="E12" s="9">
@@ -811,7 +811,7 @@
         <v>1210</v>
       </c>
       <c r="D13" s="3">
-        <f>C13-C11</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E13" s="10">
@@ -827,26 +827,77 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="4">
+        <v>43971</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4210</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="12">
+        <f>D14*E14</f>
+        <v>718.40000000000009</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(F14,F15)</f>
+        <v>815.60000000000014</v>
+      </c>
+      <c r="H14" s="13">
+        <v>815.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1250</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="12">
+        <f>D15*E15</f>
+        <v>97.2</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="13">
-        <f>SUM(G4:G13)</f>
-        <v>2967.3</v>
-      </c>
-      <c r="H14" s="13">
-        <f>SUM(H4:H13)</f>
-        <v>2854.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="G16" s="13">
+        <f>SUM(G4:G15)</f>
+        <v>3782.9000000000005</v>
+      </c>
+      <c r="H16" s="13">
+        <f>SUM(H4:H15)</f>
+        <v>3669.7999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="13">
-        <f>SUM(H14,-G14)</f>
-        <v>-113.10000000000036</v>
+      <c r="G17" s="2"/>
+      <c r="H17" s="13">
+        <f>SUM(H16,-G16)</f>
+        <v>-113.10000000000082</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/31ee.xlsx
+++ b/sputnik/personal/ee/31ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -98,12 +98,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -181,6 +187,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -488,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,11 +594,11 @@
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>776.90000000000009</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <f>SUM(F4,F5)</f>
         <v>848.60000000000014</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <v>765</v>
       </c>
     </row>
@@ -613,8 +621,8 @@
         <f t="shared" si="1"/>
         <v>71.7</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="13">
+      <c r="G5" s="15"/>
+      <c r="H5" s="14">
         <v>70.5</v>
       </c>
     </row>
@@ -770,7 +778,7 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="13">
-        <v>21.5</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,26 +886,77 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="4">
+        <v>44062</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4410</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="3">C16-C14</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="12">
+        <f>D16*E16</f>
+        <v>942</v>
+      </c>
+      <c r="G16" s="13">
+        <f>SUM(F16,F17)</f>
+        <v>1197</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1350</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="12">
+        <f>D17*E17</f>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="13">
-        <f>SUM(G4:G15)</f>
-        <v>3782.9000000000005</v>
-      </c>
-      <c r="H16" s="13">
-        <f>SUM(H4:H15)</f>
-        <v>3669.7999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="G18" s="13">
+        <f>SUM(G4:G17)</f>
+        <v>4979.9000000000005</v>
+      </c>
+      <c r="H18" s="13">
+        <f>SUM(H4:H17)</f>
+        <v>4966.7999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="13">
-        <f>SUM(H16,-G16)</f>
-        <v>-113.10000000000082</v>
+      <c r="G19" s="2"/>
+      <c r="H19" s="13">
+        <f>SUM(H18,-G18)</f>
+        <v>-13.100000000001273</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/31ee.xlsx
+++ b/sputnik/personal/ee/31ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="12">
-        <f>D12*E12</f>
+        <f t="shared" ref="F12:F17" si="3">D12*E12</f>
         <v>673.5</v>
       </c>
       <c r="G12" s="13">
@@ -826,7 +826,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="12">
-        <f>D13*E13</f>
+        <f t="shared" si="3"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G13" s="2"/>
@@ -852,7 +852,7 @@
         <v>4.49</v>
       </c>
       <c r="F14" s="12">
-        <f>D14*E14</f>
+        <f t="shared" si="3"/>
         <v>718.40000000000009</v>
       </c>
       <c r="G14" s="13">
@@ -879,7 +879,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="12">
-        <f>D15*E15</f>
+        <f t="shared" si="3"/>
         <v>97.2</v>
       </c>
       <c r="G15" s="2"/>
@@ -896,14 +896,14 @@
         <v>4410</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="3">C16-C14</f>
+        <f t="shared" ref="D16:D17" si="4">C16-C14</f>
         <v>200</v>
       </c>
       <c r="E16" s="9">
         <v>4.71</v>
       </c>
       <c r="F16" s="12">
-        <f>D16*E16</f>
+        <f t="shared" si="3"/>
         <v>942</v>
       </c>
       <c r="G16" s="13">
@@ -923,39 +923,90 @@
         <v>1350</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E17" s="10">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="12">
-        <f>D17*E17</f>
+        <f t="shared" si="3"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4">
+        <v>44120</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4660</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="5">C18-C16</f>
+        <v>250</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G18" s="13">
+        <f>SUM(F18,F19)</f>
+        <v>1305</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="6"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="13">
-        <f>SUM(G4:G17)</f>
-        <v>4979.9000000000005</v>
-      </c>
-      <c r="H18" s="13">
-        <f>SUM(H4:H17)</f>
-        <v>4966.7999999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="13">
+        <f>SUM(G4:G19)</f>
+        <v>6284.9000000000005</v>
+      </c>
+      <c r="H20" s="13">
+        <f>SUM(H4:H19)</f>
+        <v>6271.7999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="13">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="2"/>
+      <c r="H21" s="13">
+        <f>SUM(H20,-G20)</f>
         <v>-13.100000000001273</v>
       </c>
     </row>

--- a/sputnik/personal/ee/31ee.xlsx
+++ b/sputnik/personal/ee/31ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>долг</t>
   </si>
 </sst>
 </file>
@@ -499,7 +493,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -988,27 +982,55 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
-        <v>10</v>
+      <c r="A20" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4810</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="7">C20-C18</f>
+        <v>150</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>706.5</v>
       </c>
       <c r="G20" s="13">
-        <f>SUM(G4:G19)</f>
-        <v>6284.9000000000005</v>
+        <f>SUM(F20,F21)</f>
+        <v>834</v>
       </c>
       <c r="H20" s="13">
-        <f>SUM(H4:H19)</f>
-        <v>6271.7999999999993</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
-        <v>11</v>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1450</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="8"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="13">
-        <f>SUM(H20,-G20)</f>
-        <v>-13.100000000001273</v>
-      </c>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/31ee.xlsx
+++ b/sputnik/personal/ee/31ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -989,22 +989,22 @@
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>4810</v>
+        <v>4910</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ref="D20:D21" si="7">C20-C18</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E20" s="9">
         <v>4.71</v>
       </c>
       <c r="F20" s="12">
         <f t="shared" ref="F20:F21" si="8">D20*E20</f>
-        <v>706.5</v>
+        <v>1177.5</v>
       </c>
       <c r="G20" s="13">
         <f>SUM(F20,F21)</f>
-        <v>834</v>
+        <v>1305</v>
       </c>
       <c r="H20" s="13">
         <v>1305</v>
@@ -1031,6 +1031,57 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44406</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5160</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="9">C22-C20</f>
+        <v>250</v>
+      </c>
+      <c r="E22" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" ref="F22:F23" si="10">D22*E22</f>
+        <v>1240</v>
+      </c>
+      <c r="G22" s="13">
+        <f>SUM(F22,F23)</f>
+        <v>1374</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/31ee.xlsx
+++ b/sputnik/personal/ee/31ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1082,6 +1082,57 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44419</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5387</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="11">C24-C22</f>
+        <v>227</v>
+      </c>
+      <c r="E24" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" ref="F24:F25" si="12">D24*E24</f>
+        <v>1125.92</v>
+      </c>
+      <c r="G24" s="13">
+        <f>SUM(F24,F25)</f>
+        <v>1313.52</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1313.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1570</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="12"/>
+        <v>187.60000000000002</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/31ee.xlsx
+++ b/sputnik/personal/ee/31ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -86,7 +86,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +96,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -170,6 +176,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A2:H25"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,31 +537,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44455</v>
+        <v>44497</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>5517</v>
+        <v>5657</v>
       </c>
       <c r="D2" s="3">
         <f>C2-C4</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
-        <v>644.79999999999995</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>694.4</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>832.4</v>
+        <v>855.2</v>
       </c>
       <c r="H2" s="11">
-        <v>832.4</v>
+        <v>855.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -561,49 +570,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>1640</v>
+        <v>1700</v>
       </c>
       <c r="D3" s="3">
         <f>C3-C5</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E3" s="8">
         <v>2.68</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="0"/>
-        <v>187.60000000000002</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44419</v>
+      <c r="A4" s="13">
+        <v>44455</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5387</v>
+        <v>5517</v>
       </c>
       <c r="D4" s="3">
         <f>C4-C6</f>
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="E4" s="7">
         <v>4.96</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" si="0"/>
-        <v>1125.92</v>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>644.79999999999995</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>1313.52</v>
+        <v>832.4</v>
       </c>
       <c r="H4" s="11">
-        <v>1313.6</v>
+        <v>832.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -612,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1570</v>
+        <v>1640</v>
       </c>
       <c r="D5" s="3">
         <f>C5-C7</f>
@@ -622,7 +631,7 @@
         <v>2.68</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>187.60000000000002</v>
       </c>
       <c r="G5" s="2"/>
@@ -630,19 +639,32 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44406</v>
+        <v>44419</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>5160</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+        <v>5387</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6-C8</f>
+        <v>227</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>1125.92</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>1313.52</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1313.6</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -650,13 +672,51 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
+        <v>1570</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C9</f>
+        <v>70</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="1"/>
+        <v>187.60000000000002</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44406</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5160</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
